--- a/data/income_statement/2digits/size/30_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/30_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>30-Manufacture of other transport equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>30-Manufacture of other transport equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3769692.85278</v>
+        <v>3541288.3712</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3369296.005580001</v>
+        <v>3128455.62914</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4734687.32188</v>
+        <v>4435681.41707</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4834310.13149</v>
+        <v>4617860.04709</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5898643.76016</v>
+        <v>5713061.47889</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5647102.73203</v>
+        <v>7189112.75667</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7757329.78382</v>
+        <v>8856341.662770001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10920313.44654</v>
+        <v>10460357.45187</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>15718824.85717</v>
+        <v>15083316.59188</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19907901.19873</v>
+        <v>18817190.76672</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>30417204.32794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>29345299.49102</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>30509499.086</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1673162.15646</v>
+        <v>1539031.3388</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1729265.20451</v>
+        <v>1594535.9621</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2395109.8187</v>
+        <v>2250080.65118</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2183389.74517</v>
+        <v>2070860.46226</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2679702.59157</v>
+        <v>2545148.5327</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2525636.64829</v>
+        <v>3110220.76478</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2840336.324150001</v>
+        <v>3165235.96472</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4530623.51474</v>
+        <v>4291611.96669</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6750260.77339</v>
+        <v>6411586.271509999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7971236.64941</v>
+        <v>7385662.67141</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12703592.78631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12145252.70088</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12821512.534</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2047170.451</v>
+        <v>1960301.83582</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1582719.36004</v>
+        <v>1480001.02822</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2279722.098439999</v>
+        <v>2149000.5429</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2588976.95121</v>
+        <v>2498524.29028</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3176247.55605</v>
+        <v>3124440.06913</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3087641.13211</v>
+        <v>4027194.01468</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4857974.7906</v>
+        <v>5623686.20316</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6284715.467350001</v>
+        <v>6086615.71083</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8799503.07223</v>
+        <v>8552905.03342</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>11782448.44776</v>
+        <v>11308361.91325</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17412539.44181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16987613.70712</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>17366250.953</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>49360.24532000001</v>
+        <v>41955.19658</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>57311.44103</v>
+        <v>53918.63882000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>59855.40474000001</v>
+        <v>36600.22298999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>61943.43511</v>
+        <v>48475.29455</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>42693.61254000001</v>
+        <v>43472.87706</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>33824.95163</v>
+        <v>51697.97721</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>59018.66907000001</v>
+        <v>67419.49489</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>104974.46445</v>
+        <v>82129.77434999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>169061.01155</v>
+        <v>118825.28695</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>154216.10156</v>
+        <v>123166.18206</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>301072.09982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>212433.08302</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>321735.599</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>23449.32296</v>
+        <v>20065.58859</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>31703.48565</v>
+        <v>30287.90875</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>40757.77694</v>
+        <v>34955.26292</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>61729.13142</v>
+        <v>59305.4682</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>47069.62855</v>
+        <v>43261.22401</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>53156.14826</v>
+        <v>47531.39499</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>60924.17297</v>
+        <v>60233.73668</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>56869.79323</v>
+        <v>52789.47857</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>151923.99042</v>
+        <v>89572.88467999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>98757.58384000001</v>
+        <v>51774.38034</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>139100.13747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>127745.00458</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>123159.654</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7972.872199999999</v>
+        <v>5747.44016</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6165.16316</v>
+        <v>5364.67616</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>11017.53932</v>
+        <v>6007.411939999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>18454.33654</v>
+        <v>16201.57437</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12014.80893</v>
+        <v>8820.347970000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>12101.15853</v>
+        <v>9604.573799999998</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13967.22569</v>
+        <v>11540.1933</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20724.46594</v>
+        <v>17017.02025</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>128109.08483</v>
+        <v>66284.27936999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>50065.15724</v>
+        <v>12138.03776</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>52156.98863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43094.07365999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>52192.156</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>13807.70121</v>
+        <v>13743.3808</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>23859.58654</v>
+        <v>23852.54443</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>28293.72962</v>
+        <v>28280.89316</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>42472.0475</v>
+        <v>42337.29845</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>33132.6856</v>
+        <v>32519.56821</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>39166.94168</v>
+        <v>36038.77314</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>45784.92099</v>
+        <v>45333.96339</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>33600.99408999999</v>
+        <v>33228.12512</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>21066.86897</v>
+        <v>20683.97986</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>47027.81035</v>
+        <v>37971.72633</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>77148.75134999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>76142.51471999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>47699.56</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1668.74955</v>
+        <v>574.7676300000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1678.73595</v>
+        <v>1070.68816</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1446.508</v>
+        <v>666.9578200000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>802.7473799999999</v>
+        <v>766.59538</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1922.13402</v>
+        <v>1921.30783</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1888.04805</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1172.02629</v>
+        <v>3359.57999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2544.3332</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2748.03662</v>
+        <v>2604.62545</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>1664.61625</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9794.397489999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8508.4162</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>23267.938</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3746243.52982</v>
+        <v>3521222.78261</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3337592.51993</v>
+        <v>3098167.72039</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4693929.54494</v>
+        <v>4400726.15415</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4772581.000070001</v>
+        <v>4558554.57889</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5851574.13161</v>
+        <v>5669800.25488</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5593946.583769999</v>
+        <v>7141581.36168</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7696405.61085</v>
+        <v>8796107.92609</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10863443.65331</v>
+        <v>10407567.9733</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>15566900.86675</v>
+        <v>14993743.7072</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>19809143.61489</v>
+        <v>18765416.38638</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>30278104.19047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>29217554.48644</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>30386339.432</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3113021.53486</v>
+        <v>2920085.94153</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2828016.15254</v>
+        <v>2619948.12252</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3830697.19378</v>
+        <v>3589891.83886</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4109521.70734</v>
+        <v>3941401.98343</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5170332.602379999</v>
+        <v>5020486.76763</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4579905.245159999</v>
+        <v>5662342.460899999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5948189.600589999</v>
+        <v>6958725.957469999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8392306.574309999</v>
+        <v>7996464.113059999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>12186876.9349</v>
+        <v>11721318.17615</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13711549.23191</v>
+        <v>12944415.90366</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>21425028.84476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20613129.50875</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>20640615.601</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1965150.85033</v>
+        <v>1883273.15349</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1920807.12831</v>
+        <v>1839969.32518</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2862685.56701</v>
+        <v>2758308.1043</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3008704.46116</v>
+        <v>2923687.39082</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3950667.49005</v>
+        <v>3880734.54114</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3385158.59896</v>
+        <v>4512676.319010001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4519619.17824</v>
+        <v>5466436.299520001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6623186.1925</v>
+        <v>6395549.27892</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>9963857.50343</v>
+        <v>9696354.713570001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>11671977.35264</v>
+        <v>11236409.44456</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>19006147.78872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18258980.11171</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>17338519.057</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>403080.8196099999</v>
+        <v>377790.63732</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>356428.18438</v>
+        <v>326961.58157</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>180422.66386</v>
+        <v>159087.61456</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>224783.64119</v>
+        <v>207598.46084</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>123385.67397</v>
+        <v>109823.88698</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>235359.95902</v>
+        <v>215395.60475</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>368567.93673</v>
+        <v>366448.20274</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>275883.27388</v>
+        <v>231626.90227</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>857864.54152</v>
+        <v>769478.16564</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>306194.4409700001</v>
+        <v>203377.58753</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>655961.36211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>523788.2984799999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>935802.9889999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>348369.07354</v>
+        <v>262907.66117</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>295081.0197299999</v>
+        <v>197761.8591</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>518969.59214</v>
+        <v>405177.10721</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>506253.00885</v>
+        <v>440599.39115</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>594263.9910299999</v>
+        <v>528078.20334</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>641152.0310300001</v>
+        <v>619245.65099</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>765506.4009000001</v>
+        <v>833397.78186</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1011641.01931</v>
+        <v>888452.6744499999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>952331.4065</v>
+        <v>867547.02998</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1206953.82453</v>
+        <v>999201.70716</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1314050.48904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1410146.13524</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2119498.63</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>396420.79138</v>
+        <v>396114.48955</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>255699.82012</v>
+        <v>255255.35667</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>268619.37077</v>
+        <v>267319.01279</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>369780.59614</v>
+        <v>369516.74062</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>502015.4473299999</v>
+        <v>501850.13617</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>318234.65615</v>
+        <v>315024.88615</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>294496.08472</v>
+        <v>292443.67335</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>481596.08862</v>
+        <v>480835.25742</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>412823.4834500001</v>
+        <v>387938.26696</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>526423.6137700001</v>
+        <v>505427.16441</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>448869.20489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>420214.96332</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>246794.925</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>633221.99496</v>
+        <v>601136.8410799999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>509576.36739</v>
+        <v>478219.59787</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>863232.35116</v>
+        <v>810834.3152899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>663059.29273</v>
+        <v>617152.59546</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>681241.52923</v>
+        <v>649313.48725</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1014041.33861</v>
+        <v>1479238.90078</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1748216.01026</v>
+        <v>1837381.96862</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2471137.078999999</v>
+        <v>2411103.86024</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3380023.93185</v>
+        <v>3272425.53105</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6097594.38298</v>
+        <v>5821000.482720001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8853075.345709998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8604424.97769</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9745723.831</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>287287.18283</v>
+        <v>224355.85508</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>272170.88718</v>
+        <v>219825.55172</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>372124.75816</v>
+        <v>312391.82013</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>389708.25408</v>
+        <v>330680.24466</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>427651.97272</v>
+        <v>372546.00231</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>449860.3231</v>
+        <v>438329.7862</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>557061.1174399999</v>
+        <v>539732.7015399999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>769828.6530599999</v>
+        <v>648439.96775</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>928031.7478900001</v>
+        <v>781962.5581200001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1158307.04071</v>
+        <v>1013172.97775</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1635066.31933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1456825.92168</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1706838.398</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>13365.4411</v>
+        <v>11253.28994</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>15059.31073</v>
+        <v>14973.04064</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>23538.13651</v>
+        <v>21740.04146</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>27823.92598</v>
+        <v>26055.36711</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>38549.92708</v>
+        <v>36385.82395000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>31194.45957</v>
+        <v>43921.91595</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>61058.23393999999</v>
+        <v>57236.51247</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>92202.85434999999</v>
+        <v>86860.20810999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>143319.07685</v>
+        <v>135100.41291</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>245451.50131</v>
+        <v>235559.58828</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>294599.80453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>291084.4699199999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>399130.477</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>44224.21601</v>
+        <v>35282.69468</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>49529.90916</v>
+        <v>45561.46663</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>80906.21523</v>
+        <v>71290.15095000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>85225.25603999999</v>
+        <v>79299.46716</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>96661.02829999999</v>
+        <v>96897.26343000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>105329.87118</v>
+        <v>114223.46708</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>138695.58986</v>
+        <v>163224.90273</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>161102.31426</v>
+        <v>151391.71644</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>229538.68829</v>
+        <v>193893.44859</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>287155.0251900001</v>
+        <v>250915.42105</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>418521.8121800001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>385987.8372600001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>391852.837</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>229697.52572</v>
+        <v>177819.87046</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>207581.66729</v>
+        <v>159291.04445</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>267680.40642</v>
+        <v>219361.62772</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>276659.07206</v>
+        <v>225325.41039</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>292441.01734</v>
+        <v>239262.91493</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>313335.99235</v>
+        <v>280184.40317</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>357307.29364</v>
+        <v>319271.28634</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>516523.48445</v>
+        <v>410188.0432</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>555173.98275</v>
+        <v>452968.69662</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>625700.5142100001</v>
+        <v>526697.96842</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>921944.70262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>779753.6145</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>915855.084</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>345934.8121299999</v>
+        <v>376780.986</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>237405.48021</v>
+        <v>258394.04615</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>491107.593</v>
+        <v>498442.4951599999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>273351.03865</v>
+        <v>286472.3508</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>253589.55651</v>
+        <v>276767.48494</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>564181.0155099999</v>
+        <v>1040909.11458</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1191154.89282</v>
+        <v>1297649.26708</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1701308.42594</v>
+        <v>1762663.89249</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2451992.18396</v>
+        <v>2490462.97293</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4939287.342270001</v>
+        <v>4807827.50497</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7218009.02638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7147599.05601</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8038885.433</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>415662.69181</v>
+        <v>353936.1283400001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>577275.6426200001</v>
+        <v>442606.2355</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>749762.07393</v>
+        <v>650762.61493</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>627482.0811899999</v>
+        <v>550284.30522</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>845738.0203199999</v>
+        <v>707991.1163</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>934276.4363200002</v>
+        <v>1144462.34831</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1991886.89902</v>
+        <v>2067929.443</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2644533.31799</v>
+        <v>2412564.38981</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3779652.56216</v>
+        <v>3363616.78644</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12549725.80769</v>
+        <v>11408255.35259</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7171192.59892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6655391.532280001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>13247853.288</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3984.26326</v>
+        <v>1556.64977</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5929.73686</v>
+        <v>3425.86788</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3324.7469</v>
+        <v>3080.65321</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>22137.24207</v>
+        <v>20825.75208</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>24178.9656</v>
+        <v>23878.2776</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>86095.53840999999</v>
+        <v>87714.80214</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>29405.91753</v>
+        <v>30360.46293</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>81879.25925</v>
+        <v>2583.15188</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>60352.36962</v>
+        <v>3486.93155</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5289.10765</v>
+        <v>2708.35246</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8101.896729999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3045.55039</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10409.915</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5084.3792</v>
@@ -1823,7 +1839,7 @@
         <v>3098.81836</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>492.34531</v>
+        <v>1583.76931</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>27786.55</v>
@@ -1840,65 +1856,75 @@
       <c r="M27" s="48" t="n">
         <v>62546.6082</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>18163.519</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>42779.88128</v>
+        <v>36919.10584</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>45917.11169</v>
+        <v>40377.06279</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>46490.13423</v>
+        <v>36805.9176</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>50001.05596000001</v>
+        <v>38506.41124</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>42300.23779</v>
+        <v>37680.57024</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>38587.40497</v>
+        <v>53131.40588999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>64580.01102</v>
+        <v>74702.09957000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>99239.82386</v>
+        <v>77993.72769</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>188830.25323</v>
+        <v>162533.86278</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>409756.5009700001</v>
+        <v>351169.02668</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>776397.2671300001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>741102.2135600001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>601155.856</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>158.97314</v>
+        <v>0.9509299999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>93.99856</v>
+        <v>0.5932200000000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>184.24908</v>
+        <v>179.32269</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>12.3884</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1.02533</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0.16823</v>
@@ -1916,130 +1942,150 @@
         <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14014.89984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>13309.90779</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>57251.301</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5175.04296</v>
+        <v>4293.38855</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1005.47229</v>
+        <v>959.8044599999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1179.54975</v>
+        <v>1130.13981</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1578.39985</v>
+        <v>491.84312</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2536.14486</v>
+        <v>2262.73015</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9148.930289999998</v>
+        <v>8288.20307</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9403.147939999999</v>
+        <v>8145.57454</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6725.68289</v>
+        <v>6518.37706</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>17034.00991</v>
+        <v>15783.35059</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>13494.48529</v>
+        <v>12760.47999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>26005.19036</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>25924.63799</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>44349.526</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1641.27144</v>
+        <v>999.92183</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>72.8083</v>
+        <v>55.04545</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>169.06357</v>
+        <v>130.1827</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1012.0161</v>
+        <v>926.2246899999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>23494.09285</v>
+        <v>23491.19302</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>880.90688</v>
+        <v>2643.18917</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3073.78671</v>
+        <v>3103.77891</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1782.86639</v>
+        <v>1775.19018</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>259.42921</v>
+        <v>36.70414</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>92.44763999999999</v>
+        <v>57.60065</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3855.68866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17.18175</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>324.784</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>331036.74779</v>
+        <v>282956.32614</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>477282.01922</v>
+        <v>364236.3666</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>642704.5074799999</v>
+        <v>559803.76335</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>499820.44326</v>
+        <v>438955.85808</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>587316.623</v>
+        <v>547712.12022</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>723276.31614</v>
+        <v>911976.20732</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1704345.20536</v>
+        <v>1786607.0709</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2288083.02271</v>
+        <v>2160600.44133</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3349298.21675</v>
+        <v>3032832.01209</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11843062.23095</v>
+        <v>10801128.23355</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6072086.85665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5652670.989960001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12245537.899</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>561.4101400000001</v>
@@ -2048,37 +2094,42 @@
         <v>141.54753</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>405.75324</v>
+        <v>377.86146</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>15961.65466</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>18525.30916</v>
+        <v>18459.48875</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>14111.45942</v>
+        <v>13612.76702</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>11703.61295</v>
+        <v>11579.22043</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>15442.29864</v>
+        <v>15285.12224</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>20751.35824</v>
+        <v>20525.49085</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>25260.73368</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>25775.70743</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>24106.27569</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>27364.706</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>25240.7226</v>
+        <v>21563.99594</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>41748.56929</v>
+        <v>28325.56869</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>51329.69123</v>
+        <v>45280.39565999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>31043.29364</v>
+        <v>28688.5857</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>144286.80337</v>
+        <v>51407.91796</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>61683.36667000001</v>
+        <v>65511.83616000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>141588.66751</v>
+        <v>125644.68572</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>147181.76353</v>
+        <v>143609.77871</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>94947.1002</v>
+        <v>80238.60944</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>126572.00151</v>
+        <v>88972.62557999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>182408.48392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>132668.16695</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>243295.782</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>342533.2121100001</v>
+        <v>290199.26583</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>434500.42444</v>
+        <v>334951.92768</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>794214.5579700001</v>
+        <v>659628.12318</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>499663.26779</v>
+        <v>441784.7806200001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1030331.29124</v>
+        <v>859199.1138800001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>800864.15642</v>
+        <v>999605.01235</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1817969.49718</v>
+        <v>1904034.73169</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2448817.11413</v>
+        <v>2253069.87905</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3493269.78797</v>
+        <v>3114419.94697</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11778709.78907</v>
+        <v>10582197.40028</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6286743.5312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5722313.234459999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11779939.973</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>528.92852</v>
+        <v>526.5285200000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>349.83539</v>
+        <v>275.21748</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1076.16416</v>
+        <v>989.7755599999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>1663.77534</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>827.89639</v>
+        <v>813.6534200000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>280.0227</v>
+        <v>257.5039</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>467.3407800000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>838.45086</v>
+        <v>738.8487899999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>265.8459</v>
+        <v>258.90456</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1881.719</v>
+        <v>1771.3315</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7422.043979999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5593.583729999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11796.927</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>17529.30629</v>
+        <v>16512.07856</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>17899.28524</v>
+        <v>17218.69693</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>46257.3232</v>
+        <v>20690.02143</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>34913.18949</v>
+        <v>34650.70456000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>130554.89398</v>
+        <v>37878.42757</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>15154.61691</v>
+        <v>34664.81998000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>67568.64550999999</v>
+        <v>66307.31420000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>65188.78348</v>
+        <v>63983.01387</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>74390.80548000001</v>
+        <v>73714.03973999998</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>156040.00056</v>
+        <v>154740.10906</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>171366.59043</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>170845.26638</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>225566.856</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.35068</v>
@@ -2285,7 +2361,7 @@
         <v>539.09046</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1245.247</v>
+        <v>1244.374</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>2233.36536</v>
@@ -2306,52 +2382,62 @@
         <v>50.92337000000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>10407.64511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>12.34323</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3.369</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>313322.44723</v>
+        <v>267123.07352</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>400249.42333</v>
+        <v>302849.5782</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>714675.2975600001</v>
+        <v>628631.68111</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>423255.6207600001</v>
+        <v>371258.68428</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>795611.3857000001</v>
+        <v>718335.61568</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>735044.2126699999</v>
+        <v>914435.47971</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1662838.51862</v>
+        <v>1739659.88928</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2299087.44736</v>
+        <v>2107815.96041</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3342436.87076</v>
+        <v>2968238.26646</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>11409788.37417</v>
+        <v>10355687.03325</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5835423.646799999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5327162.765780001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11417446.477</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>36.59273</v>
@@ -2366,7 +2452,7 @@
         <v>19779.77712</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>18864.40008</v>
+        <v>18393.03448</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>13954.07935</v>
@@ -2384,13 +2470,18 @@
         <v>33397.8414</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>17409.59687</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>16643.34525</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>32120.429</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>19.95175</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>11115.58666</v>
+        <v>6000.641819999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>15729.90078</v>
+        <v>14336.45537</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>31331.74275</v>
+        <v>8442.614780000002</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>18805.65808</v>
+        <v>13187.46532</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>82239.34973</v>
+        <v>81545.01736999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>36385.62479000001</v>
+        <v>36267.48116</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>73974.55635000001</v>
+        <v>84479.75151</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>67843.29949</v>
+        <v>64672.92304</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>53407.98916000001</v>
+        <v>49440.45954</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>177550.93057</v>
+        <v>36550.1617</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>244714.00801</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>202055.93009</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>93005.91499999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>152417.89533</v>
+        <v>130955.72954</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>154370.6788</v>
+        <v>104593.7533</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>251339.85653</v>
+        <v>197270.26339</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>146622.07515</v>
+        <v>113494.08026</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>349086.56272</v>
+        <v>318948.32353</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>246069.23055</v>
+        <v>227880.09642</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>500958.04907</v>
+        <v>481730.46038</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>646230.0849299999</v>
+        <v>590634.51801</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>586816.3732200001</v>
+        <v>489489.40977</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1686666.18468</v>
+        <v>1366648.70042</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1675690.83182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1532127.66299</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2745423.051</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>142501.85203</v>
+        <v>125352.83131</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>138865.40645</v>
+        <v>97753.40902999998</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>218033.06887</v>
+        <v>177519.3145</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>130142.62771</v>
+        <v>106159.16919</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>299154.3784099999</v>
+        <v>277365.32485</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>185333.82939</v>
+        <v>168484.38779</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>443272.3514999999</v>
+        <v>429400.91852</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>592384.18749</v>
+        <v>542115.28997</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>523611.98483</v>
+        <v>432069.1806900001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1488051.7628</v>
+        <v>1318258.18293</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1534693.42064</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1428031.78955</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2469229.45</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9916.043299999999</v>
+        <v>5602.898230000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>15505.27235</v>
+        <v>6840.34427</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>33306.78766</v>
+        <v>19750.94889</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>16479.44744</v>
+        <v>7334.91107</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>49932.18431</v>
+        <v>41582.99868</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>60735.40116</v>
+        <v>59395.70863</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>57685.69757</v>
+        <v>52329.54186</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>53845.89744</v>
+        <v>48519.22804</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>63204.38839</v>
+        <v>57420.22908</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>198614.42188</v>
+        <v>48390.51748999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>140997.41118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>104095.87344</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>276193.601</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>266646.3965</v>
+        <v>309562.11897</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>225810.01959</v>
+        <v>261454.60067</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>195315.2524299999</v>
+        <v>292306.72352</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>254547.7769</v>
+        <v>281477.79514</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-280090.27713</v>
+        <v>-193388.83617</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>451524.0648599999</v>
+        <v>957886.35412</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>864114.2455900001</v>
+        <v>979813.51801</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1250794.54487</v>
+        <v>1331523.88524</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2151558.58493</v>
+        <v>2250170.40263</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4023637.176210001</v>
+        <v>4267236.75686</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6426767.26228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6548549.69084</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6761375.697</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>164579.7836</v>
+        <v>20214.98554</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>66663.88576</v>
+        <v>14730.57079</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>134106.36784</v>
+        <v>48859.48418</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>66519.31134</v>
+        <v>41324.40995</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>59811.77980999999</v>
+        <v>67450.20845000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>107238.23958</v>
+        <v>111679.45197</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>49437.79371999999</v>
+        <v>63873.16576</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>235233.81406</v>
+        <v>212645.27762</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>221561.25219</v>
+        <v>121801.72387</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>380427.71463</v>
+        <v>210585.13692</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>334258.43118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>167758.54729</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>392683.063</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>625.91985</v>
+        <v>584.39746</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1390.37085</v>
+        <v>1027.25775</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2834.41338</v>
+        <v>2701.1788</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5517.13675</v>
+        <v>5372.204449999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>888.8543599999998</v>
+        <v>678.82658</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1736.14367</v>
+        <v>1653.436</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2502.478370000001</v>
+        <v>1952.64879</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2082.30451</v>
+        <v>1493.82417</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4032.83879</v>
+        <v>3632.25565</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>64838.14831999999</v>
+        <v>1832.89553</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>27413.50136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6950.68834</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5579.274</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>163953.86375</v>
+        <v>19630.58808</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>65273.51491</v>
+        <v>13703.31304</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>131271.95446</v>
+        <v>46158.30538000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>61002.17459000001</v>
+        <v>35952.2055</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>58922.92545</v>
+        <v>66771.38187</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>105502.09591</v>
+        <v>110026.01597</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>46935.31535</v>
+        <v>61920.51697</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>233151.50955</v>
+        <v>211151.45345</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>217528.4134</v>
+        <v>118169.46822</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>315589.56631</v>
+        <v>208752.24139</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>306844.92982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>160807.85895</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>387103.789</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>170098.00399</v>
+        <v>93306.94503</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>82275.09051000001</v>
+        <v>30729.05494000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>184130.33248</v>
+        <v>99613.85059999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>93870.04426</v>
+        <v>78012.31675999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>84829.09303</v>
+        <v>75221.20421000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>139865.88379</v>
+        <v>135998.22708</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>103204.12263</v>
+        <v>96857.44783000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>287344.55389</v>
+        <v>218727.46436</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>207149.63781</v>
+        <v>181437.38244</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>295382.09313</v>
+        <v>177984.87589</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>388471.31564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>258242.49875</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>590029.501</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9429.80219</v>
+        <v>4141.68021</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>10039.1367</v>
+        <v>5171.841550000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>14738.76067</v>
+        <v>12489.21398</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>21435.166</v>
+        <v>16208.66064</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>21314.3194</v>
+        <v>16480.87986</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>24061.52134</v>
+        <v>20556.59994</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>24688.09084</v>
+        <v>24018.59872</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>44263.10318999999</v>
+        <v>41677.04162</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>67465.05214999999</v>
+        <v>65525.01929</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>63140.32823999999</v>
+        <v>59349.09008</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>110887.41559</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>109159.65693</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>264993.635</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>19093.57848</v>
+        <v>17374.90557</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>14000.58987</v>
+        <v>12864.71685</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>21307.7182</v>
+        <v>20255.27734</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>36837.09319000001</v>
+        <v>33885.10275</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>34221.95553</v>
+        <v>33360.10355</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>20929.38912</v>
+        <v>21814.89064</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>20806.10172</v>
+        <v>20704.52622</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>29802.21364000001</v>
+        <v>28151.77063</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>25148.76937</v>
+        <v>23927.3253</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>48774.53560000001</v>
+        <v>19823.34778</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>38214.63349999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>25172.56944</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>29318.256</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>141574.62332</v>
+        <v>71790.35924999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>58235.36394</v>
+        <v>12692.49654</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>148083.85361</v>
+        <v>66869.35928</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35597.78507</v>
+        <v>27918.55337</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29292.8181</v>
+        <v>25380.2208</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>94874.97332999999</v>
+        <v>93626.7365</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>57709.93007</v>
+        <v>52134.32289</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>213279.23706</v>
+        <v>148898.65211</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>114535.81629</v>
+        <v>91985.03784999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>183467.22929</v>
+        <v>98812.43803</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>239369.26655</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>123910.27238</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>295717.61</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>261128.17611</v>
+        <v>236470.15948</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>210198.81484</v>
+        <v>245456.11652</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>145291.28779</v>
+        <v>241552.3571</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>227197.04398</v>
+        <v>244789.88833</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-305107.59035</v>
+        <v>-201159.83193</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>418896.42065</v>
+        <v>933567.57901</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>810347.9166799999</v>
+        <v>946829.2359399999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1198683.80504</v>
+        <v>1325441.6985</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2165970.19931</v>
+        <v>2190534.74406</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4108682.79771</v>
+        <v>4299837.017890001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6372554.37782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6458065.73938</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6564029.259</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>14289.22339</v>
+        <v>12039.07475</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>18192.52409</v>
+        <v>13569.79336</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>55418.10655999999</v>
+        <v>51020.00820999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>29293.87566</v>
+        <v>26096.84751</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>25410.62765999999</v>
+        <v>22614.86036</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>42267.23979000001</v>
+        <v>45070.98249</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>60920.21318</v>
+        <v>61988.34536</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>72389.62462999999</v>
+        <v>69874.54276000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>113458.07831</v>
+        <v>105906.60206</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>21991.41674</v>
+        <v>17779.79337</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29421.17678</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>24061.77359</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>90017.98</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>246838.95272</v>
+        <v>224431.08473</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>192006.29075</v>
+        <v>231886.32316</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>89873.18123000002</v>
+        <v>190532.34889</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>197903.16832</v>
+        <v>218693.04082</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-330518.2180100001</v>
+        <v>-223774.69229</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>376629.18086</v>
+        <v>888496.59652</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>749427.7035000001</v>
+        <v>884840.8905799999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1126294.18041</v>
+        <v>1255567.15574</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2052512.121</v>
+        <v>2084628.142</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4086691.38097</v>
+        <v>4282057.22452</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6343133.201039999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6434003.96579</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6474011.279</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>